--- a/test/yamazaki.xlsx
+++ b/test/yamazaki.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4640" yWindow="-80" windowWidth="33560" windowHeight="20860" tabRatio="500"/>
+    <workbookView xWindow="-40" yWindow="-80" windowWidth="26380" windowHeight="14760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="130407"/>
+  <calcPr calcId="130000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -21,6 +21,455 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="196">
   <si>
+    <t>Saiko_1204_11</t>
+  </si>
+  <si>
+    <t>DSC02032.jpg</t>
+  </si>
+  <si>
+    <t>Saiko_1204_08</t>
+  </si>
+  <si>
+    <t>DSC02045.jpg</t>
+  </si>
+  <si>
+    <t>DSC02038.jpg</t>
+  </si>
+  <si>
+    <t>DSC02044.jpg</t>
+  </si>
+  <si>
+    <t>DSC02046.jpg</t>
+  </si>
+  <si>
+    <t>DSC02043.jpg</t>
+  </si>
+  <si>
+    <t>DSC02041.jpg</t>
+  </si>
+  <si>
+    <t>Saiko_1204_09</t>
+  </si>
+  <si>
+    <t>ＤＳＣ02053.jpg</t>
+  </si>
+  <si>
+    <t>DSC02051.jpg</t>
+  </si>
+  <si>
+    <t>Saiko_1204_10</t>
+  </si>
+  <si>
+    <t>DSC02028.jpg</t>
+  </si>
+  <si>
+    <t>DSC02029.jpg</t>
+  </si>
+  <si>
+    <t>2012-12-04 12.36.43.jpg</t>
+  </si>
+  <si>
+    <t>DSC02027.jpg</t>
+  </si>
+  <si>
+    <t>DSC02025.jpg</t>
+  </si>
+  <si>
+    <t>Saiko_1204_07</t>
+  </si>
+  <si>
+    <t>DSC02035.jpg</t>
+  </si>
+  <si>
+    <t>2012-12-04 13.13.55.jpg</t>
+  </si>
+  <si>
+    <t>2012-12-04 13.02.06.jpg</t>
+  </si>
+  <si>
+    <t>2012-12-04 13.10.43.jpg</t>
+  </si>
+  <si>
+    <t>DSC02033.jpg</t>
+  </si>
+  <si>
+    <t>2012-12-04 12.00.06.jpg</t>
+  </si>
+  <si>
+    <t>DSC02000.jpg</t>
+  </si>
+  <si>
+    <t>DSC02003.jpg</t>
+  </si>
+  <si>
+    <t>Saiko_1204_05</t>
+  </si>
+  <si>
+    <t>DSC02259.jpg</t>
+  </si>
+  <si>
+    <t>DSC02009.jpg</t>
+  </si>
+  <si>
+    <t>DSC02011.jpg</t>
+  </si>
+  <si>
+    <t>DSC02260.jpg</t>
+  </si>
+  <si>
+    <t>DSC02013.jpg</t>
+  </si>
+  <si>
+    <t>DSC02261.jpg</t>
+  </si>
+  <si>
+    <t>Saiko_1204_06</t>
+  </si>
+  <si>
+    <t>2012-12-04b11.35.30.jpg</t>
+  </si>
+  <si>
+    <t>DSC01940.jpg</t>
+  </si>
+  <si>
+    <t>DSC0224.jpg</t>
+  </si>
+  <si>
+    <t>DSC02164.jpg</t>
+  </si>
+  <si>
+    <t>Saiko_1204_03</t>
+  </si>
+  <si>
+    <t>DSC02007.jpg</t>
+  </si>
+  <si>
+    <t>2012-12-04 11.51.43.jpg</t>
+  </si>
+  <si>
+    <t>DSC02006.jpg</t>
+  </si>
+  <si>
+    <t>DSC01999.jpg</t>
+  </si>
+  <si>
+    <t>DSC02002.jpg</t>
+  </si>
+  <si>
+    <t>2012-12-04 12.04.51.jpg</t>
+  </si>
+  <si>
+    <t>Saiko_1204_04</t>
+  </si>
+  <si>
+    <t>Saiko_1204_01</t>
+  </si>
+  <si>
+    <t>2012-12-04 07.41.54.jpg</t>
+  </si>
+  <si>
+    <t>2012-12-04 -8.00.50.jpg</t>
+  </si>
+  <si>
+    <t>2012-12-04 07.43.05.jpg</t>
+  </si>
+  <si>
+    <t>2012-12-04 08.10.23.jpg</t>
+  </si>
+  <si>
+    <t>Saiko_1204_02</t>
+  </si>
+  <si>
+    <t>2012-12-04 07.41.28.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2012-12-04 07.43.42.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DSC02054.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2012-12-04 11.36.08.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Saiko_1206_07</t>
+  </si>
+  <si>
+    <t>DSC02222.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DSC02216.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DSC02221.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DSC02222.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DSC02220.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2012-12-06 14.58.47-1.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Saiko_1206_05</t>
+  </si>
+  <si>
+    <t>DSC02207.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DSC02209.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DSC02208.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DSC02206.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DSC02207.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Saiko_1206_06</t>
+  </si>
+  <si>
+    <t>DSC02203.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DSC02199.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DSC02203.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2012-12-06 12.47.02.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DSC02197.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DSC02200.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DSC02194.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DSC2191.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DSC02204.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DSC02192.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DSC02193.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DSC02195.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Saiko_1206_04</t>
+  </si>
+  <si>
+    <t>DSC02181.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DSC02177.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DSC2180.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DSC02179.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DSC02178.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Saiko_1206_03</t>
+  </si>
+  <si>
+    <t>DSC02170.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DSC02166.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DSC02169.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2012-12-05 10.48.50.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DSC02172.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DSC02173.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Saiko_1206_02</t>
+  </si>
+  <si>
+    <t>メインにふさわしい写真がなかったのでファビアンの撮ってた写真をどれかつかってください。</t>
+    <rPh sb="9" eb="11">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シャシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2012-12-05 15.09.52.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2012-12-05 15.45.44.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2012-12-05 15.48.16.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2012-12-05 15.38.48.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DSC02149.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Saiko_1206_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2012-12-04v19.46.22.jpg</t>
+  </si>
+  <si>
+    <t>DSC02087.jpg</t>
+  </si>
+  <si>
+    <t>DSC02089.jpg</t>
+  </si>
+  <si>
+    <t>DSC-2090.jpg</t>
+  </si>
+  <si>
+    <t>2012-12-04 20.18.28.jpg</t>
+  </si>
+  <si>
+    <t>Saiko_1205_04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DSC02084.jpg</t>
+  </si>
+  <si>
+    <t>2012-12-04 19.25609.jpg</t>
+  </si>
+  <si>
+    <t>DSC02082.jpg</t>
+  </si>
+  <si>
+    <t>DSC02085.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2012-12-04 19.23.56.jpg</t>
+  </si>
+  <si>
+    <t>2012-12-04 19.19.09.jpg</t>
+  </si>
+  <si>
+    <t>Saiko_1204_14</t>
+  </si>
+  <si>
+    <t>DSC02100.jpg</t>
+  </si>
+  <si>
+    <t>2012-12-04 22.13.40.jpg</t>
+  </si>
+  <si>
+    <t>2012-12-04 22.14.14.jpg</t>
+  </si>
+  <si>
+    <t>DSC02101.jpg</t>
+  </si>
+  <si>
+    <t>Saiko_1204_15</t>
+  </si>
+  <si>
+    <t>Saiko_1204_12</t>
+  </si>
+  <si>
+    <t>DSC02068.jpg</t>
+  </si>
+  <si>
+    <t>2012-12-04 17.50.47.jpg</t>
+  </si>
+  <si>
+    <t>Saiko_1204_13</t>
+  </si>
+  <si>
+    <t>DSC022076.jpg</t>
+  </si>
+  <si>
+    <t>DSC02072.jpg</t>
+  </si>
+  <si>
+    <t>DSC02069.jpg</t>
+  </si>
+  <si>
+    <t>完成写真2種、ジェフさんが撮って下さった写真を使って下さい。。</t>
+  </si>
+  <si>
+    <t>Jung Leeさんとの写真、ジェフさんが撮って下さったものを入れて下さい。</t>
+  </si>
+  <si>
     <t>POST-DATE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -220,10 +669,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DSC02054.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DSC02059.jpg</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -367,448 +812,6 @@
   <si>
     <t>DSC02211.jpg</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Saiko_1206_07</t>
-  </si>
-  <si>
-    <t>DSC02222.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DSC02216.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DSC02221.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DSC02222.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DSC02220.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2012-12-06 14.58.47-1.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Saiko_1206_05</t>
-  </si>
-  <si>
-    <t>DSC02207.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DSC02209.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DSC02208.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DSC02206.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DSC02207.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Saiko_1206_06</t>
-  </si>
-  <si>
-    <t>DSC02203.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DSC02199.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DSC02203.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2012-12-06 12.47.02.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DSC02197.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DSC02200.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DSC02194.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DSC2191.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DSC02204.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DSC02192.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DSC02193.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DSC02195.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Saiko_1206_04</t>
-  </si>
-  <si>
-    <t>DSC02181.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DSC02177.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DSC2180.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DSC02179.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DSC02178.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Saiko_1206_03</t>
-  </si>
-  <si>
-    <t>DSC02170.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DSC02166.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DSC02169.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2012-12-05 10.48.50.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DSC02172.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DSC02173.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Saiko_1206_02</t>
-  </si>
-  <si>
-    <t>メインにふさわしい写真がなかったのでファビアンの撮ってた写真をどれかつかってください。</t>
-    <rPh sb="9" eb="11">
-      <t>シャシン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>シャシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2012-12-05 15.09.52.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2012-12-05 15.45.44.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2012-12-05 15.48.16.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2012-12-05 15.38.48.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DSC02149.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Saiko_1206_01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2012-12-04v19.46.22.jpg</t>
-  </si>
-  <si>
-    <t>DSC02087.jpg</t>
-  </si>
-  <si>
-    <t>DSC02089.jpg</t>
-  </si>
-  <si>
-    <t>DSC-2090.jpg</t>
-  </si>
-  <si>
-    <t>2012-12-04 20.18.28.jpg</t>
-  </si>
-  <si>
-    <t>Saiko_1205_04</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DSC02084.jpg</t>
-  </si>
-  <si>
-    <t>2012-12-04 19.25609.jpg</t>
-  </si>
-  <si>
-    <t>DSC02082.jpg</t>
-  </si>
-  <si>
-    <t>DSC02085.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2012-12-04 19.23.56.jpg</t>
-  </si>
-  <si>
-    <t>2012-12-04 19.19.09.jpg</t>
-  </si>
-  <si>
-    <t>Saiko_1204_14</t>
-  </si>
-  <si>
-    <t>DSC02100.jpg</t>
-  </si>
-  <si>
-    <t>2012-12-04 22.13.40.jpg</t>
-  </si>
-  <si>
-    <t>2012-12-04 22.14.14.jpg</t>
-  </si>
-  <si>
-    <t>DSC02101.jpg</t>
-  </si>
-  <si>
-    <t>Saiko_1204_15</t>
-  </si>
-  <si>
-    <t>Saiko_1204_12</t>
-  </si>
-  <si>
-    <t>DSC02068.jpg</t>
-  </si>
-  <si>
-    <t>2012-12-04 17.50.47.jpg</t>
-  </si>
-  <si>
-    <t>Saiko_1204_13</t>
-  </si>
-  <si>
-    <t>DSC022076.jpg</t>
-  </si>
-  <si>
-    <t>DSC02072.jpg</t>
-  </si>
-  <si>
-    <t>DSC02069.jpg</t>
-  </si>
-  <si>
-    <t>完成写真2種、ジェフさんが撮って下さった写真を使って下さい。。</t>
-  </si>
-  <si>
-    <t>Jung Leeさんとの写真、ジェフさんが撮って下さったものを入れて下さい。</t>
-  </si>
-  <si>
-    <t>Saiko_1204_11</t>
-  </si>
-  <si>
-    <t>DSC02032.jpg</t>
-  </si>
-  <si>
-    <t>Saiko_1204_08</t>
-  </si>
-  <si>
-    <t>DSC02045.jpg</t>
-  </si>
-  <si>
-    <t>DSC02038.jpg</t>
-  </si>
-  <si>
-    <t>DSC02044.jpg</t>
-  </si>
-  <si>
-    <t>DSC02046.jpg</t>
-  </si>
-  <si>
-    <t>DSC02043.jpg</t>
-  </si>
-  <si>
-    <t>DSC02041.jpg</t>
-  </si>
-  <si>
-    <t>Saiko_1204_09</t>
-  </si>
-  <si>
-    <t>ＤＳＣ02053.jpg</t>
-  </si>
-  <si>
-    <t>DSC02051.jpg</t>
-  </si>
-  <si>
-    <t>Saiko_1204_10</t>
-  </si>
-  <si>
-    <t>DSC02028.jpg</t>
-  </si>
-  <si>
-    <t>DSC02029.jpg</t>
-  </si>
-  <si>
-    <t>2012-12-04 12.36.43.jpg</t>
-  </si>
-  <si>
-    <t>DSC02027.jpg</t>
-  </si>
-  <si>
-    <t>DSC02025.jpg</t>
-  </si>
-  <si>
-    <t>Saiko_1204_07</t>
-  </si>
-  <si>
-    <t>DSC02035.jpg</t>
-  </si>
-  <si>
-    <t>2012-12-04 13.13.55.jpg</t>
-  </si>
-  <si>
-    <t>2012-12-04 13.02.06.jpg</t>
-  </si>
-  <si>
-    <t>2012-12-04 13.10.43.jpg</t>
-  </si>
-  <si>
-    <t>DSC02033.jpg</t>
-  </si>
-  <si>
-    <t>2012-12-04 12.00.06.jpg</t>
-  </si>
-  <si>
-    <t>DSC02000.jpg</t>
-  </si>
-  <si>
-    <t>DSC02003.jpg</t>
-  </si>
-  <si>
-    <t>Saiko_1204_05</t>
-  </si>
-  <si>
-    <t>DSC02259.jpg</t>
-  </si>
-  <si>
-    <t>DSC02009.jpg</t>
-  </si>
-  <si>
-    <t>DSC02011.jpg</t>
-  </si>
-  <si>
-    <t>DSC02260.jpg</t>
-  </si>
-  <si>
-    <t>DSC02013.jpg</t>
-  </si>
-  <si>
-    <t>DSC02261.jpg</t>
-  </si>
-  <si>
-    <t>Saiko_1204_06</t>
-  </si>
-  <si>
-    <t>2012-12-04b11.35.30.jpg</t>
-  </si>
-  <si>
-    <t>2012-12-04b11.36.08.jpg</t>
-  </si>
-  <si>
-    <t>DSC01940.jpg</t>
-  </si>
-  <si>
-    <t>DSC0224.jpg</t>
-  </si>
-  <si>
-    <t>DSC02164.jpg</t>
-  </si>
-  <si>
-    <t>Saiko_1204_03</t>
-  </si>
-  <si>
-    <t>DSC02007.jpg</t>
-  </si>
-  <si>
-    <t>2012-12-04 11.51.43.jpg</t>
-  </si>
-  <si>
-    <t>DSC02006.jpg</t>
-  </si>
-  <si>
-    <t>DSC01999.jpg</t>
-  </si>
-  <si>
-    <t>DSC02002.jpg</t>
-  </si>
-  <si>
-    <t>2012-12-04 12.04.51.jpg</t>
-  </si>
-  <si>
-    <t>Saiko_1204_04</t>
-  </si>
-  <si>
-    <t>Saiko_1204_01</t>
-  </si>
-  <si>
-    <t>2012-12-04 07.41.54.jpg</t>
-  </si>
-  <si>
-    <t>2012-12-04 07.43.42.jg</t>
-  </si>
-  <si>
-    <t>2012-12-04 -8.00.50.jpg</t>
-  </si>
-  <si>
-    <t>2012-12-04 07.41.28.jpg</t>
-  </si>
-  <si>
-    <t>2012-12-04 07.43.05.jpg</t>
-  </si>
-  <si>
-    <t>2012-12-04 08.10.23.jpg</t>
-  </si>
-  <si>
-    <t>Saiko_1204_02</t>
   </si>
 </sst>
 </file>
@@ -816,20 +819,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="[$-411]General"/>
-    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="164" formatCode="[$-411]General"/>
+    <numFmt numFmtId="165" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
@@ -843,21 +844,18 @@
       <color indexed="8"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="ＭＳ Ｐゴシック1"/>
       <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
@@ -939,27 +937,27 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -969,7 +967,7 @@
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Excel Built-in Normal 1" xfId="2"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -1296,84 +1294,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="73.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.83203125" customWidth="1"/>
-    <col min="8" max="8" width="52.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.875" customWidth="1"/>
+    <col min="8" max="8" width="52.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="52.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="52.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="52.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="52.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="58.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="58.875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>2</v>
+        <v>133</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>3</v>
+        <v>134</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>5</v>
+        <v>136</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>7</v>
+        <v>138</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="4" customFormat="1" ht="21.75" customHeight="1">
@@ -1381,48 +1380,48 @@
         <v>169</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3">
         <v>41247</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="str">
         <f>IF(D2="","",B2&amp;"_01.jpg")</f>
         <v>Saiko_1204_01_01.jpg</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>190</v>
+        <v>54</v>
       </c>
       <c r="G2" s="2" t="str">
         <f>IF(F2="","",B2&amp;"_02.jpg")</f>
         <v>Saiko_1204_01_02.jpg</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c r="I2" s="2" t="str">
         <f>IF(H2="","",B2&amp;"_03.jpg")</f>
         <v>Saiko_1204_01_03.jpg</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>192</v>
+        <v>53</v>
       </c>
       <c r="K2" s="2" t="str">
         <f>IF(J2="","",B2&amp;"_04.jpg")</f>
         <v>Saiko_1204_01_04.jpg</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>193</v>
+        <v>50</v>
       </c>
       <c r="M2" s="2" t="str">
         <f>IF(L2="","",B2&amp;"_05.jpg")</f>
         <v>Saiko_1204_01_05.jpg</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>194</v>
+        <v>51</v>
       </c>
       <c r="O2" s="2" t="str">
         <f>IF(N2="","",B2&amp;"_06.jpg")</f>
@@ -1439,41 +1438,41 @@
         <v>170</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>195</v>
+        <v>52</v>
       </c>
       <c r="C3" s="3">
         <v>41247</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="str">
         <f t="shared" ref="E3:E34" si="0">IF(D3="","",B3&amp;"_01.jpg")</f>
         <v>Saiko_1204_02_01.jpg</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="G3" s="2" t="str">
         <f t="shared" ref="G3:G34" si="1">IF(F3="","",B3&amp;"_02.jpg")</f>
         <v>Saiko_1204_02_02.jpg</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="I3" s="2" t="str">
         <f t="shared" ref="I3:I34" si="2">IF(H3="","",B3&amp;"_03.jpg")</f>
         <v>Saiko_1204_02_03.jpg</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>178</v>
+        <v>37</v>
       </c>
       <c r="K3" s="2" t="str">
         <f t="shared" ref="K3:K34" si="3">IF(J3="","",B3&amp;"_04.jpg")</f>
         <v>Saiko_1204_02_04.jpg</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>179</v>
+        <v>38</v>
       </c>
       <c r="M3" s="2" t="str">
         <f t="shared" ref="M3:M34" si="4">IF(L3="","",B3&amp;"_05.jpg")</f>
@@ -1495,48 +1494,48 @@
         <v>171</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="C4" s="3">
         <v>41247</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Saiko_1204_03_01.jpg</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Saiko_1204_03_02.jpg</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>183</v>
+        <v>42</v>
       </c>
       <c r="I4" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Saiko_1204_03_03.jpg</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>184</v>
+        <v>43</v>
       </c>
       <c r="K4" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Saiko_1204_03_04.jpg</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>185</v>
+        <v>44</v>
       </c>
       <c r="M4" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Saiko_1204_03_05.jpg</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="O4" s="2" t="str">
         <f t="shared" si="5"/>
@@ -1553,34 +1552,34 @@
         <v>172</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>187</v>
+        <v>46</v>
       </c>
       <c r="C5" s="3">
         <v>41247</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Saiko_1204_04_01.jpg</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="G5" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Saiko_1204_04_02.jpg</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="I5" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Saiko_1204_04_03.jpg</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="K5" s="2" t="str">
         <f t="shared" si="3"/>
@@ -1607,48 +1606,48 @@
         <v>173</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3">
         <v>41247</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>168</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Saiko_1204_05_01.jpg</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Saiko_1204_05_02.jpg</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="I6" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Saiko_1204_05_03.jpg</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="K6" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Saiko_1204_05_04.jpg</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c r="M6" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Saiko_1204_05_05.jpg</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>173</v>
+        <v>33</v>
       </c>
       <c r="O6" s="2" t="str">
         <f t="shared" si="5"/>
@@ -1665,41 +1664,41 @@
         <v>174</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>174</v>
+        <v>34</v>
       </c>
       <c r="C7" s="3">
         <v>41247</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Saiko_1204_06_01.jpg</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Saiko_1204_06_02.jpg</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Saiko_1204_06_03.jpg</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="K7" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Saiko_1204_06_04.jpg</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="M7" s="2" t="str">
         <f t="shared" si="4"/>
@@ -1721,48 +1720,48 @@
         <v>175</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3">
         <v>41247</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Saiko_1204_07_01.jpg</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G8" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Saiko_1204_07_02.jpg</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="I8" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Saiko_1204_07_03.jpg</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="K8" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Saiko_1204_07_04.jpg</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="M8" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Saiko_1204_07_05.jpg</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>141</v>
+        <v>1</v>
       </c>
       <c r="O8" s="2" t="str">
         <f t="shared" si="5"/>
@@ -1779,48 +1778,48 @@
         <v>176</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>142</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3">
         <v>41247</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Saiko_1204_08_01.jpg</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>144</v>
+        <v>4</v>
       </c>
       <c r="G9" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Saiko_1204_08_02.jpg</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="I9" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Saiko_1204_08_03.jpg</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>146</v>
+        <v>6</v>
       </c>
       <c r="K9" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Saiko_1204_08_04.jpg</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="M9" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Saiko_1204_08_05.jpg</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>148</v>
+        <v>8</v>
       </c>
       <c r="O9" s="2" t="str">
         <f t="shared" si="5"/>
@@ -1837,20 +1836,20 @@
         <v>177</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>149</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3">
         <v>41247</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Saiko_1204_09_01.jpg</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1887,48 +1886,48 @@
         <v>178</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3">
         <v>41247</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Saiko_1204_10_01.jpg</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Saiko_1204_10_02.jpg</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="I11" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Saiko_1204_10_03.jpg</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="K11" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Saiko_1204_10_04.jpg</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="M11" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Saiko_1204_10_05.jpg</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="O11" s="2" t="str">
         <f t="shared" si="5"/>
@@ -1945,27 +1944,27 @@
         <v>179</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="C12" s="3">
         <v>41247</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Saiko_1204_11_01.jpg</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="G12" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Saiko_1204_11_02.jpg</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="I12" s="2" t="str">
         <f t="shared" si="2"/>
@@ -1997,27 +1996,27 @@
         <v>180</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C13" s="3">
         <v>41247</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Saiko_1204_12_01.jpg</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G13" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Saiko_1204_12_02.jpg</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="I13" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2049,48 +2048,48 @@
         <v>181</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C14" s="3">
         <v>41247</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Saiko_1204_13_01.jpg</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G14" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Saiko_1204_13_02.jpg</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="I14" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Saiko_1204_13_03.jpg</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="K14" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Saiko_1204_13_04.jpg</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="M14" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Saiko_1204_13_05.jpg</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="O14" s="2" t="str">
         <f t="shared" si="5"/>
@@ -2107,34 +2106,34 @@
         <v>182</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C15" s="3">
         <v>41247</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Saiko_1204_14_01.jpg</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G15" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Saiko_1204_14_02.jpg</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I15" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Saiko_1204_14_03.jpg</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="K15" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2161,41 +2160,41 @@
         <v>183</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C16" s="3">
         <v>41247</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Saiko_1204_15_01.jpg</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G16" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Saiko_1204_15_02.jpg</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I16" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Saiko_1204_15_03.jpg</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="K16" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Saiko_1204_15_04.jpg</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="M16" s="2" t="str">
         <f t="shared" si="4"/>
@@ -2217,48 +2216,48 @@
         <v>184</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C17" s="3">
         <v>41248</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Saiko_1205_04_01.jpg</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G17" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Saiko_1205_04_02.jpg</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="I17" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Saiko_1205_04_03.jpg</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Saiko_1205_04_04.jpg</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M17" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Saiko_1205_04_05.jpg</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="O17" s="2" t="str">
         <f t="shared" si="5"/>
@@ -2275,48 +2274,48 @@
         <v>185</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C18" s="3">
         <v>41249</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Saiko_1206_01_01.jpg</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G18" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Saiko_1206_01_02.jpg</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="I18" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Saiko_1206_01_03.jpg</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="K18" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Saiko_1206_01_04.jpg</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="M18" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Saiko_1206_01_05.jpg</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="O18" s="2" t="str">
         <f t="shared" si="5"/>
@@ -2333,41 +2332,41 @@
         <v>186</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C19" s="3">
         <v>41249</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Saiko_1206_02_01.jpg</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G19" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Saiko_1206_02_02.jpg</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="I19" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Saiko_1206_02_03.jpg</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="K19" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Saiko_1206_02_04.jpg</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="M19" s="2" t="str">
         <f t="shared" si="4"/>
@@ -2389,48 +2388,48 @@
         <v>187</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C20" s="3">
         <v>41249</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Saiko_1206_03_01.jpg</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G20" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Saiko_1206_03_02.jpg</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I20" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Saiko_1206_03_03.jpg</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K20" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Saiko_1206_03_04.jpg</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="M20" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Saiko_1206_03_05.jpg</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="O20" s="2" t="str">
         <f t="shared" si="5"/>
@@ -2447,48 +2446,48 @@
         <v>188</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C21" s="3">
         <v>41249</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Saiko_1206_04_01.jpg</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G21" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Saiko_1206_04_02.jpg</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I21" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Saiko_1206_04_03.jpg</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K21" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Saiko_1206_04_04.jpg</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="M21" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Saiko_1206_04_05.jpg</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="O21" s="2" t="str">
         <f t="shared" si="5"/>
@@ -2505,41 +2504,41 @@
         <v>189</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C22" s="3">
         <v>41249</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Saiko_1206_05_01.jpg</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G22" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Saiko_1206_05_02.jpg</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I22" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Saiko_1206_05_03.jpg</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K22" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Saiko_1206_05_04.jpg</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="M22" s="2" t="str">
         <f t="shared" si="4"/>
@@ -2561,48 +2560,48 @@
         <v>190</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C23" s="3">
         <v>41249</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="E23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Saiko_1206_06_01.jpg</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>61</v>
+        <v>191</v>
       </c>
       <c r="G23" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Saiko_1206_06_02.jpg</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>62</v>
+        <v>192</v>
       </c>
       <c r="I23" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Saiko_1206_06_03.jpg</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c r="K23" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Saiko_1206_06_04.jpg</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>64</v>
+        <v>194</v>
       </c>
       <c r="M23" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Saiko_1206_06_05.jpg</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>65</v>
+        <v>195</v>
       </c>
       <c r="O23" s="2" t="str">
         <f t="shared" si="5"/>
@@ -2619,48 +2618,48 @@
         <v>191</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C24" s="3">
         <v>41249</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Saiko_1206_07_01.jpg</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G24" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Saiko_1206_07_02.jpg</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I24" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Saiko_1206_07_03.jpg</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K24" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Saiko_1206_07_04.jpg</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="M24" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Saiko_1206_07_05.jpg</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="O24" s="2" t="str">
         <f t="shared" si="5"/>
@@ -2677,48 +2676,48 @@
         <v>192</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>52</v>
+        <v>182</v>
       </c>
       <c r="C25" s="3">
         <v>41249</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="E25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Saiko_1206_08_01.jpg</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>54</v>
+        <v>184</v>
       </c>
       <c r="G25" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Saiko_1206_08_02.jpg</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>55</v>
+        <v>185</v>
       </c>
       <c r="I25" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Saiko_1206_08_03.jpg</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>56</v>
+        <v>186</v>
       </c>
       <c r="K25" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Saiko_1206_08_04.jpg</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="M25" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Saiko_1206_08_05.jpg</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>58</v>
+        <v>188</v>
       </c>
       <c r="O25" s="2" t="str">
         <f t="shared" si="5"/>
@@ -2735,34 +2734,34 @@
         <v>193</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>59</v>
+        <v>189</v>
       </c>
       <c r="C26" s="3">
         <v>41249</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>47</v>
+        <v>177</v>
       </c>
       <c r="E26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Saiko_1206_09_01.jpg</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="G26" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Saiko_1206_09_02.jpg</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="I26" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Saiko_1206_09_03.jpg</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="K26" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2789,41 +2788,41 @@
         <v>194</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>51</v>
+        <v>181</v>
       </c>
       <c r="C27" s="3">
         <v>41249</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="E27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Saiko_1206_10_01.jpg</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c r="G27" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Saiko_1206_10_02.jpg</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="I27" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Saiko_1206_10_03.jpg</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="K27" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Saiko_1206_10_04.jpg</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="M27" s="2" t="str">
         <f t="shared" si="4"/>
@@ -2845,48 +2844,48 @@
         <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="C28" s="3">
         <v>41249</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="E28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Saiko_1206_11_01.jpg</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="G28" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Saiko_1206_11_02.jpg</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="I28" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Saiko_1206_11_03.jpg</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="K28" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Saiko_1206_11_04.jpg</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="M28" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Saiko_1206_11_05.jpg</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="O28" s="2" t="str">
         <f t="shared" si="5"/>
@@ -2903,48 +2902,48 @@
         <v>196</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="C29" s="3">
         <v>41247</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="E29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Saiko_1204_16_01.jpg</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G29" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Saiko_1204_16_02.jpg</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="I29" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Saiko_1204_16_03.jpg</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="K29" s="2" t="str">
         <f t="shared" si="3"/>
         <v>Saiko_1204_16_04.jpg</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="M29" s="2" t="str">
         <f t="shared" si="4"/>
         <v>Saiko_1204_16_05.jpg</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="O29" s="2" t="str">
         <f t="shared" si="5"/>
@@ -2961,13 +2960,13 @@
         <v>197</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="C30" s="8">
         <v>41247</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="E30" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3009,13 +3008,13 @@
         <v>198</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="C31" s="8">
         <v>41247</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="E31" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3057,13 +3056,13 @@
         <v>199</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="C32" s="8">
         <v>41247</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="E32" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3105,13 +3104,13 @@
         <v>200</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="C33" s="8">
         <v>41247</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="E33" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3153,27 +3152,27 @@
         <v>201</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="C34" s="8">
         <v>41249</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="E34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Saiko_1206_12_01.jpg</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="G34" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Saiko_1206_12_02.jpg</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="I34" s="2" t="str">
         <f t="shared" si="2"/>
